--- a/biology/Médecine/Inotersen/Inotersen.xlsx
+++ b/biology/Médecine/Inotersen/Inotersen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Inotersen, est un médicament de type oligonucléotide antisens dirigé contre la transthyrétine et vendu sous la marque Tegsedi[1].
+Inotersen, est un médicament de type oligonucléotide antisens dirigé contre la transthyrétine et vendu sous la marque Tegsedi.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Usage médical</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Est un médicament utilisé pour traiter les lésions nerveuses liées à l'amylose héréditaire médiée par la transthyrétine[2]. Il est utilisé chez les personnes encore capables de marcher[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Est un médicament utilisé pour traiter les lésions nerveuses liées à l'amylose héréditaire médiée par la transthyrétine. Il est utilisé chez les personnes encore capables de marcher.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Effets secondaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Effets secondaires fréquents : rougeur et douleur au site d'injection, nausées, maux de tête, fatigue, faible taux de plaquettes et fièvre; d'autres effets secondaires peuvent inclure une inflammation des reins, un accident vasculaire cérébral, une carence en vitamine A, des réactions allergiques et des problèmes hépatiques[3],[2]. C'est un oligonucléotide antisens[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Effets secondaires fréquents : rougeur et douleur au site d'injection, nausées, maux de tête, fatigue, faible taux de plaquettes et fièvre; d'autres effets secondaires peuvent inclure une inflammation des reins, un accident vasculaire cérébral, une carence en vitamine A, des réactions allergiques et des problèmes hépatiques,. C'est un oligonucléotide antisens.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Inotersen a été approuvé pour un usage médical aux États-Unis et en Europe en 2018[2],[1]. Au Royaume-Uni, cela coûte au NHS environ 332 000 £ par an à compter de 2021[4]. Aux États-Unis, ce montant coûte environ 521 000 dollars américains tandis qu'au Canada, il s'élève à environ 420 000 dollars canadiens[5],[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inotersen a été approuvé pour un usage médical aux États-Unis et en Europe en 2018,. Au Royaume-Uni, cela coûte au NHS environ 332 000 £ par an à compter de 2021. Aux États-Unis, ce montant coûte environ 521 000 dollars américains tandis qu'au Canada, il s'élève à environ 420 000 dollars canadiens,.
 </t>
         </is>
       </c>
